--- a/excel_sheet_housing_true.xlsx
+++ b/excel_sheet_housing_true.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anikapuri/6.C35 Visualization &amp; Society/GitHub/A2-Visual-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ACFB3C5-99C0-8C40-97A0-F87DA45D3087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE6A390-24F2-3D4A-8B8B-09AAA71139AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="760" windowWidth="23100" windowHeight="17640" activeTab="2"/>
+    <workbookView xWindow="6700" yWindow="760" windowWidth="23100" windowHeight="17640" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Census + Corp Ownership and Occ" sheetId="1" r:id="rId1"/>
     <sheet name="housing" sheetId="6" r:id="rId2"/>
-    <sheet name="housing_transposed" sheetId="7" r:id="rId3"/>
-    <sheet name="race" sheetId="4" r:id="rId4"/>
-    <sheet name="race_transposed" sheetId="5" r:id="rId5"/>
-    <sheet name="owner_rates" sheetId="2" r:id="rId6"/>
-    <sheet name="corporate_owner" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="housing_transposed" sheetId="7" r:id="rId4"/>
+    <sheet name="race" sheetId="4" r:id="rId5"/>
+    <sheet name="race_transposed" sheetId="5" r:id="rId6"/>
+    <sheet name="owner_rates" sheetId="2" r:id="rId7"/>
+    <sheet name="corporate_owner" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="74">
   <si>
     <t>Neighborhood</t>
   </si>
@@ -246,11 +258,14 @@
   <si>
     <t>Vacant Units</t>
   </si>
+  <si>
+    <t>Corporate Owner Rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1099,11 +1114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN442"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55038,7 +55053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -55257,10 +55272,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30584D1D-A8FE-CC48-B680-24214CFA5986}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="EP1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -55513,8 +55540,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -56004,8 +56031,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -56612,8 +56639,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58123,12 +58150,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:V1"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59632,4 +59659,152 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8168FAE8-64BD-6443-B6A2-116C87BFA50A}">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.23</v>
+      </c>
+      <c r="E2">
+        <v>0.34</v>
+      </c>
+      <c r="F2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2">
+        <v>0.19</v>
+      </c>
+      <c r="I2">
+        <v>0.3</v>
+      </c>
+      <c r="J2">
+        <v>0.36</v>
+      </c>
+      <c r="K2">
+        <v>0.12</v>
+      </c>
+      <c r="L2">
+        <v>0.17</v>
+      </c>
+      <c r="M2">
+        <v>0.34</v>
+      </c>
+      <c r="N2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.25</v>
+      </c>
+      <c r="R2">
+        <v>0.22</v>
+      </c>
+      <c r="S2">
+        <v>0.38</v>
+      </c>
+      <c r="T2">
+        <v>0.25</v>
+      </c>
+      <c r="U2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V2">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>